--- a/tests/Gauges/Subranges_Multiple.xlsx
+++ b/tests/Gauges/Subranges_Multiple.xlsx
@@ -1229,7 +1229,7 @@
     </x:row>
     <x:row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <x:c r="D15" s="0">
-        <x:f>Subtotal(9,D14:D14)</x:f>
+        <x:f>Subtotal(9,D14)</x:f>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>13</x:v>
@@ -1496,7 +1496,7 @@
     </x:row>
     <x:row r="35" spans="1:9" outlineLevel="1">
       <x:c r="D35" s="0">
-        <x:f>Subtotal(9,D34:D34)</x:f>
+        <x:f>Subtotal(9,D34)</x:f>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>13</x:v>
@@ -1799,7 +1799,7 @@
     </x:row>
     <x:row r="57" spans="1:9" outlineLevel="1">
       <x:c r="D57" s="0">
-        <x:f>Subtotal(9,D56:D56)</x:f>
+        <x:f>Subtotal(9,D56)</x:f>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>13</x:v>
@@ -1940,7 +1940,7 @@
     </x:row>
     <x:row r="70" spans="1:9" outlineLevel="1">
       <x:c r="D70" s="0">
-        <x:f>Subtotal(9,D69:D69)</x:f>
+        <x:f>Subtotal(9,D69)</x:f>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>13</x:v>
@@ -2207,7 +2207,7 @@
     </x:row>
     <x:row r="90" spans="1:9" outlineLevel="1">
       <x:c r="D90" s="0">
-        <x:f>Subtotal(9,D89:D89)</x:f>
+        <x:f>Subtotal(9,D89)</x:f>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>13</x:v>
@@ -2402,7 +2402,7 @@
     </x:row>
     <x:row r="106" spans="1:9" outlineLevel="1">
       <x:c r="D106" s="0">
-        <x:f>Subtotal(9,D105:D105)</x:f>
+        <x:f>Subtotal(9,D105)</x:f>
       </x:c>
       <x:c r="E106" s="0" t="s">
         <x:v>13</x:v>
@@ -2687,7 +2687,7 @@
     </x:row>
     <x:row r="127" spans="1:9" outlineLevel="1">
       <x:c r="D127" s="0">
-        <x:f>Subtotal(9,D126:D126)</x:f>
+        <x:f>Subtotal(9,D126)</x:f>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>13</x:v>
@@ -2864,7 +2864,7 @@
     </x:row>
     <x:row r="142" spans="1:9" outlineLevel="1">
       <x:c r="D142" s="0">
-        <x:f>Subtotal(9,D141:D141)</x:f>
+        <x:f>Subtotal(9,D141)</x:f>
       </x:c>
       <x:c r="E142" s="0" t="s">
         <x:v>13</x:v>
@@ -3131,7 +3131,7 @@
     </x:row>
     <x:row r="162" spans="1:9" outlineLevel="1">
       <x:c r="D162" s="0">
-        <x:f>Subtotal(9,D161:D161)</x:f>
+        <x:f>Subtotal(9,D161)</x:f>
       </x:c>
       <x:c r="E162" s="0" t="s">
         <x:v>13</x:v>
@@ -3308,7 +3308,7 @@
     </x:row>
     <x:row r="177" spans="1:9" outlineLevel="1">
       <x:c r="D177" s="0">
-        <x:f>Subtotal(9,D176:D176)</x:f>
+        <x:f>Subtotal(9,D176)</x:f>
       </x:c>
       <x:c r="E177" s="0" t="s">
         <x:v>13</x:v>
@@ -3539,7 +3539,7 @@
     </x:row>
     <x:row r="195" spans="1:9" outlineLevel="1">
       <x:c r="D195" s="0">
-        <x:f>Subtotal(9,D194:D194)</x:f>
+        <x:f>Subtotal(9,D194)</x:f>
       </x:c>
       <x:c r="E195" s="0" t="s">
         <x:v>13</x:v>
@@ -3842,7 +3842,7 @@
     </x:row>
     <x:row r="217" spans="1:9" outlineLevel="1">
       <x:c r="D217" s="0">
-        <x:f>Subtotal(9,D216:D216)</x:f>
+        <x:f>Subtotal(9,D216)</x:f>
       </x:c>
       <x:c r="E217" s="0" t="s">
         <x:v>13</x:v>
@@ -4019,7 +4019,7 @@
     </x:row>
     <x:row r="232" spans="1:9" outlineLevel="1">
       <x:c r="D232" s="0">
-        <x:f>Subtotal(9,D231:D231)</x:f>
+        <x:f>Subtotal(9,D231)</x:f>
       </x:c>
       <x:c r="E232" s="0" t="s">
         <x:v>13</x:v>
@@ -4196,7 +4196,7 @@
     </x:row>
     <x:row r="247" spans="1:9" outlineLevel="1">
       <x:c r="D247" s="0">
-        <x:f>Subtotal(9,D246:D246)</x:f>
+        <x:f>Subtotal(9,D246)</x:f>
       </x:c>
       <x:c r="E247" s="0" t="s">
         <x:v>13</x:v>
@@ -4391,7 +4391,7 @@
     </x:row>
     <x:row r="263" spans="1:9" outlineLevel="1">
       <x:c r="D263" s="0">
-        <x:f>Subtotal(9,D262:D262)</x:f>
+        <x:f>Subtotal(9,D262)</x:f>
       </x:c>
       <x:c r="E263" s="0" t="s">
         <x:v>13</x:v>
@@ -4586,7 +4586,7 @@
     </x:row>
     <x:row r="279" spans="1:9" outlineLevel="1">
       <x:c r="D279" s="0">
-        <x:f>Subtotal(9,D278:D278)</x:f>
+        <x:f>Subtotal(9,D278)</x:f>
       </x:c>
       <x:c r="E279" s="0" t="s">
         <x:v>13</x:v>
@@ -4853,7 +4853,7 @@
     </x:row>
     <x:row r="299" spans="1:9" outlineLevel="1">
       <x:c r="D299" s="0">
-        <x:f>Subtotal(9,D298:D298)</x:f>
+        <x:f>Subtotal(9,D298)</x:f>
       </x:c>
       <x:c r="E299" s="0" t="s">
         <x:v>13</x:v>
@@ -5102,7 +5102,7 @@
     </x:row>
     <x:row r="318" spans="1:9" outlineLevel="1">
       <x:c r="D318" s="0">
-        <x:f>Subtotal(9,D317:D317)</x:f>
+        <x:f>Subtotal(9,D317)</x:f>
       </x:c>
       <x:c r="E318" s="0" t="s">
         <x:v>13</x:v>
@@ -5225,7 +5225,7 @@
     </x:row>
     <x:row r="330" spans="1:9" outlineLevel="1">
       <x:c r="D330" s="0">
-        <x:f>Subtotal(9,D329:D329)</x:f>
+        <x:f>Subtotal(9,D329)</x:f>
       </x:c>
       <x:c r="E330" s="0" t="s">
         <x:v>13</x:v>
@@ -5420,7 +5420,7 @@
     </x:row>
     <x:row r="346" spans="1:9" outlineLevel="1">
       <x:c r="D346" s="0">
-        <x:f>Subtotal(9,D345:D345)</x:f>
+        <x:f>Subtotal(9,D345)</x:f>
       </x:c>
       <x:c r="E346" s="0" t="s">
         <x:v>13</x:v>
@@ -5669,7 +5669,7 @@
     </x:row>
     <x:row r="365" spans="1:9" outlineLevel="1">
       <x:c r="D365" s="0">
-        <x:f>Subtotal(9,D364:D364)</x:f>
+        <x:f>Subtotal(9,D364)</x:f>
       </x:c>
       <x:c r="E365" s="0" t="s">
         <x:v>13</x:v>
@@ -5810,7 +5810,7 @@
     </x:row>
     <x:row r="378" spans="1:9" outlineLevel="1">
       <x:c r="D378" s="0">
-        <x:f>Subtotal(9,D377:D377)</x:f>
+        <x:f>Subtotal(9,D377)</x:f>
       </x:c>
       <x:c r="E378" s="0" t="s">
         <x:v>13</x:v>
@@ -6005,7 +6005,7 @@
     </x:row>
     <x:row r="394" spans="1:9" outlineLevel="1">
       <x:c r="D394" s="0">
-        <x:f>Subtotal(9,D393:D393)</x:f>
+        <x:f>Subtotal(9,D393)</x:f>
       </x:c>
       <x:c r="E394" s="0" t="s">
         <x:v>13</x:v>
@@ -6146,7 +6146,7 @@
     </x:row>
     <x:row r="407" spans="1:9" outlineLevel="1">
       <x:c r="D407" s="0">
-        <x:f>Subtotal(9,D406:D406)</x:f>
+        <x:f>Subtotal(9,D406)</x:f>
       </x:c>
       <x:c r="E407" s="0" t="s">
         <x:v>13</x:v>
@@ -6269,7 +6269,7 @@
     </x:row>
     <x:row r="419" spans="1:9" outlineLevel="1">
       <x:c r="D419" s="0">
-        <x:f>Subtotal(9,D418:D418)</x:f>
+        <x:f>Subtotal(9,D418)</x:f>
       </x:c>
       <x:c r="E419" s="0" t="s">
         <x:v>13</x:v>
@@ -6392,7 +6392,7 @@
     </x:row>
     <x:row r="431" spans="1:9" outlineLevel="1">
       <x:c r="D431" s="0">
-        <x:f>Subtotal(9,D430:D430)</x:f>
+        <x:f>Subtotal(9,D430)</x:f>
       </x:c>
       <x:c r="E431" s="0" t="s">
         <x:v>13</x:v>
@@ -6533,7 +6533,7 @@
     </x:row>
     <x:row r="444" spans="1:9" outlineLevel="1">
       <x:c r="D444" s="0">
-        <x:f>Subtotal(9,D443:D443)</x:f>
+        <x:f>Subtotal(9,D443)</x:f>
       </x:c>
       <x:c r="E444" s="0" t="s">
         <x:v>13</x:v>
@@ -6692,7 +6692,7 @@
     </x:row>
     <x:row r="458" spans="1:9" outlineLevel="1">
       <x:c r="D458" s="0">
-        <x:f>Subtotal(9,D457:D457)</x:f>
+        <x:f>Subtotal(9,D457)</x:f>
       </x:c>
       <x:c r="E458" s="0" t="s">
         <x:v>13</x:v>
@@ -6815,7 +6815,7 @@
     </x:row>
     <x:row r="470" spans="1:9" outlineLevel="1">
       <x:c r="D470" s="0">
-        <x:f>Subtotal(9,D469:D469)</x:f>
+        <x:f>Subtotal(9,D469)</x:f>
       </x:c>
       <x:c r="E470" s="0" t="s">
         <x:v>13</x:v>
@@ -6992,7 +6992,7 @@
     </x:row>
     <x:row r="485" spans="1:9" outlineLevel="1">
       <x:c r="D485" s="0">
-        <x:f>Subtotal(9,D484:D484)</x:f>
+        <x:f>Subtotal(9,D484)</x:f>
       </x:c>
       <x:c r="E485" s="0" t="s">
         <x:v>13</x:v>
@@ -7151,7 +7151,7 @@
     </x:row>
     <x:row r="499" spans="1:9" outlineLevel="1">
       <x:c r="D499" s="0">
-        <x:f>Subtotal(9,D498:D498)</x:f>
+        <x:f>Subtotal(9,D498)</x:f>
       </x:c>
       <x:c r="E499" s="0" t="s">
         <x:v>13</x:v>
@@ -7310,7 +7310,7 @@
     </x:row>
     <x:row r="513" spans="1:9" outlineLevel="1">
       <x:c r="D513" s="0">
-        <x:f>Subtotal(9,D512:D512)</x:f>
+        <x:f>Subtotal(9,D512)</x:f>
       </x:c>
       <x:c r="E513" s="0" t="s">
         <x:v>13</x:v>
@@ -7415,7 +7415,7 @@
     </x:row>
     <x:row r="524" spans="1:9" outlineLevel="1">
       <x:c r="D524" s="0">
-        <x:f>Subtotal(9,D523:D523)</x:f>
+        <x:f>Subtotal(9,D523)</x:f>
       </x:c>
       <x:c r="E524" s="0" t="s">
         <x:v>13</x:v>
@@ -7574,7 +7574,7 @@
     </x:row>
     <x:row r="538" spans="1:9" outlineLevel="1">
       <x:c r="D538" s="0">
-        <x:f>Subtotal(9,D537:D537)</x:f>
+        <x:f>Subtotal(9,D537)</x:f>
       </x:c>
       <x:c r="E538" s="0" t="s">
         <x:v>13</x:v>
@@ -7697,7 +7697,7 @@
     </x:row>
     <x:row r="550" spans="1:9" outlineLevel="1">
       <x:c r="D550" s="0">
-        <x:f>Subtotal(9,D549:D549)</x:f>
+        <x:f>Subtotal(9,D549)</x:f>
       </x:c>
       <x:c r="E550" s="0" t="s">
         <x:v>13</x:v>
@@ -7872,7 +7872,7 @@
     </x:row>
     <x:row r="565" spans="1:9" outlineLevel="1">
       <x:c r="D565" s="0">
-        <x:f>Subtotal(9,D564:D564)</x:f>
+        <x:f>Subtotal(9,D564)</x:f>
       </x:c>
       <x:c r="E565" s="0" t="s">
         <x:v>13</x:v>
@@ -8013,7 +8013,7 @@
     </x:row>
     <x:row r="578" spans="1:9" outlineLevel="1">
       <x:c r="D578" s="0">
-        <x:f>Subtotal(9,D577:D577)</x:f>
+        <x:f>Subtotal(9,D577)</x:f>
       </x:c>
       <x:c r="E578" s="0" t="s">
         <x:v>13</x:v>
@@ -8136,7 +8136,7 @@
     </x:row>
     <x:row r="590" spans="1:9" outlineLevel="1">
       <x:c r="D590" s="0">
-        <x:f>Subtotal(9,D589:D589)</x:f>
+        <x:f>Subtotal(9,D589)</x:f>
       </x:c>
       <x:c r="E590" s="0" t="s">
         <x:v>13</x:v>
@@ -8295,7 +8295,7 @@
     </x:row>
     <x:row r="604" spans="1:9" outlineLevel="1">
       <x:c r="D604" s="0">
-        <x:f>Subtotal(9,D603:D603)</x:f>
+        <x:f>Subtotal(9,D603)</x:f>
       </x:c>
       <x:c r="E604" s="0" t="s">
         <x:v>13</x:v>
@@ -8436,7 +8436,7 @@
     </x:row>
     <x:row r="617" spans="1:9" outlineLevel="1">
       <x:c r="D617" s="0">
-        <x:f>Subtotal(9,D616:D616)</x:f>
+        <x:f>Subtotal(9,D616)</x:f>
       </x:c>
       <x:c r="E617" s="0" t="s">
         <x:v>13</x:v>
@@ -8559,7 +8559,7 @@
     </x:row>
     <x:row r="629" spans="1:9" outlineLevel="1">
       <x:c r="D629" s="0">
-        <x:f>Subtotal(9,D628:D628)</x:f>
+        <x:f>Subtotal(9,D628)</x:f>
       </x:c>
       <x:c r="E629" s="0" t="s">
         <x:v>13</x:v>
@@ -8700,7 +8700,7 @@
     </x:row>
     <x:row r="642" spans="1:9" outlineLevel="1">
       <x:c r="D642" s="0">
-        <x:f>Subtotal(9,D641:D641)</x:f>
+        <x:f>Subtotal(9,D641)</x:f>
       </x:c>
       <x:c r="E642" s="0" t="s">
         <x:v>13</x:v>
@@ -8823,7 +8823,7 @@
     </x:row>
     <x:row r="654" spans="1:9" outlineLevel="1">
       <x:c r="D654" s="0">
-        <x:f>Subtotal(9,D653:D653)</x:f>
+        <x:f>Subtotal(9,D653)</x:f>
       </x:c>
       <x:c r="E654" s="0" t="s">
         <x:v>13</x:v>
@@ -8964,7 +8964,7 @@
     </x:row>
     <x:row r="667" spans="1:9" outlineLevel="1">
       <x:c r="D667" s="0">
-        <x:f>Subtotal(9,D666:D666)</x:f>
+        <x:f>Subtotal(9,D666)</x:f>
       </x:c>
       <x:c r="E667" s="0" t="s">
         <x:v>13</x:v>
@@ -9087,7 +9087,7 @@
     </x:row>
     <x:row r="679" spans="1:9" outlineLevel="1">
       <x:c r="D679" s="0">
-        <x:f>Subtotal(9,D678:D678)</x:f>
+        <x:f>Subtotal(9,D678)</x:f>
       </x:c>
       <x:c r="E679" s="0" t="s">
         <x:v>13</x:v>
@@ -9246,7 +9246,7 @@
     </x:row>
     <x:row r="693" spans="1:9" outlineLevel="1">
       <x:c r="D693" s="0">
-        <x:f>Subtotal(9,D692:D692)</x:f>
+        <x:f>Subtotal(9,D692)</x:f>
       </x:c>
       <x:c r="E693" s="0" t="s">
         <x:v>13</x:v>
@@ -9369,7 +9369,7 @@
     </x:row>
     <x:row r="705" spans="1:9" outlineLevel="1">
       <x:c r="D705" s="0">
-        <x:f>Subtotal(9,D704:D704)</x:f>
+        <x:f>Subtotal(9,D704)</x:f>
       </x:c>
       <x:c r="E705" s="0" t="s">
         <x:v>13</x:v>
@@ -9510,7 +9510,7 @@
     </x:row>
     <x:row r="718" spans="1:9" outlineLevel="1">
       <x:c r="D718" s="0">
-        <x:f>Subtotal(9,D717:D717)</x:f>
+        <x:f>Subtotal(9,D717)</x:f>
       </x:c>
       <x:c r="E718" s="0" t="s">
         <x:v>13</x:v>
@@ -9669,7 +9669,7 @@
     </x:row>
     <x:row r="732" spans="1:9" outlineLevel="1">
       <x:c r="D732" s="0">
-        <x:f>Subtotal(9,D731:D731)</x:f>
+        <x:f>Subtotal(9,D731)</x:f>
       </x:c>
       <x:c r="E732" s="0" t="s">
         <x:v>13</x:v>
@@ -9792,7 +9792,7 @@
     </x:row>
     <x:row r="744" spans="1:9" outlineLevel="1">
       <x:c r="D744" s="0">
-        <x:f>Subtotal(9,D743:D743)</x:f>
+        <x:f>Subtotal(9,D743)</x:f>
       </x:c>
       <x:c r="E744" s="0" t="s">
         <x:v>13</x:v>
@@ -9915,7 +9915,7 @@
     </x:row>
     <x:row r="756" spans="1:9" outlineLevel="1">
       <x:c r="D756" s="0">
-        <x:f>Subtotal(9,D755:D755)</x:f>
+        <x:f>Subtotal(9,D755)</x:f>
       </x:c>
       <x:c r="E756" s="0" t="s">
         <x:v>13</x:v>
@@ -10038,7 +10038,7 @@
     </x:row>
     <x:row r="768" spans="1:9" outlineLevel="1">
       <x:c r="D768" s="0">
-        <x:f>Subtotal(9,D767:D767)</x:f>
+        <x:f>Subtotal(9,D767)</x:f>
       </x:c>
       <x:c r="E768" s="0" t="s">
         <x:v>13</x:v>
@@ -10161,7 +10161,7 @@
     </x:row>
     <x:row r="780" spans="1:9" outlineLevel="1">
       <x:c r="D780" s="0">
-        <x:f>Subtotal(9,D779:D779)</x:f>
+        <x:f>Subtotal(9,D779)</x:f>
       </x:c>
       <x:c r="E780" s="0" t="s">
         <x:v>13</x:v>
@@ -10302,7 +10302,7 @@
     </x:row>
     <x:row r="793" spans="1:9" outlineLevel="1">
       <x:c r="D793" s="0">
-        <x:f>Subtotal(9,D792:D792)</x:f>
+        <x:f>Subtotal(9,D792)</x:f>
       </x:c>
       <x:c r="E793" s="0" t="s">
         <x:v>13</x:v>
@@ -10479,7 +10479,7 @@
     </x:row>
     <x:row r="808" spans="1:9" outlineLevel="1">
       <x:c r="D808" s="0">
-        <x:f>Subtotal(9,D807:D807)</x:f>
+        <x:f>Subtotal(9,D807)</x:f>
       </x:c>
       <x:c r="E808" s="0" t="s">
         <x:v>13</x:v>
